--- a/A-开发相关文档素材/5.其他文档/课题一览.xlsx
+++ b/A-开发相关文档素材/5.其他文档/课题一览.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>v0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>课题功能点描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信新消息推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,8 +508,16 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">

--- a/A-开发相关文档素材/5.其他文档/课题一览.xlsx
+++ b/A-开发相关文档素材/5.其他文档/课题一览.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>v0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,11 +85,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短信验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信新消息推送</t>
+    <t>本地/服务端数据使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日历读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽追问（对话语料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽确认（对话语料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图确认（对话语料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句式，参数，语序（单句语料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码：注册，修改密码，更换手机绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信新消息推送：未注册用户消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步：数据范围，同步方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP音效设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞端：1.协议 2.信源协议（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台：1.讯飞返回协议对应逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.与前端交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡佳栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取实现及规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,9 +214,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,15 +537,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>43403</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -477,21 +582,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -504,63 +612,164 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>15</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/5.其他文档/课题一览.xlsx
+++ b/A-开发相关文档素材/5.其他文档/课题一览.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>v0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端页面样式书写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课题功能点描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,18 +121,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讯飞端：1.协议 2.信源协议（待定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台：1.讯飞返回协议对应逻辑处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     2.与前端交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +150,26 @@
   </si>
   <si>
     <t>读取实现及规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞端：1.协议 2.信源协议（待定）3.技能云函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.与前端交互 数据包装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合redis缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面样式修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP命名，文言命名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -224,12 +232,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,23 +556,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
+      <c r="A1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43403</v>
       </c>
       <c r="B2" t="s">
@@ -582,28 +593,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -616,124 +627,124 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -741,15 +752,15 @@
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -757,8 +768,24 @@
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +796,10 @@
     <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6:B9" r:id="rId1" display="讯飞语料编写"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/5.其他文档/课题一览.xlsx
+++ b/A-开发相关文档素材/5.其他文档/课题一览.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="1" r:id="rId1"/>
     <sheet name="课题v0.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>v0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,15 +162,292 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整合redis缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端页面样式修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>APP命名，文言命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号与安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能需求点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户社会关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定/更换手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用sqlite本地生成用户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.生成游客登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动选择月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成用户token</t>
+  </si>
+  <si>
+    <t>生成用户token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单机日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解析成功应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.解析失败应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音输入/
+手动输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首次打开APP可选择直接注册登陆和游客登陆
+2.注册时使用短消息验证，验证码时效性一分钟
+3.使用游客身份登陆后注册时，使用游客数据
+4.注册成功后直接登陆，并同步本地和服务器数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.短消息验证码注册
+2.注册时若有游客身份使用游客数据注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.使用游客身份登陆在本地注册生成游客用户，并生成游客登陆token
+2.当注册/登陆时，询问是否同步本地游客数据，并在登陆成功后清空游客数据
+3.登陆成功后更新token为注册用户
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑上月，右滑下月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当日日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转语音界面展示当日全部日程列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当天标识
+2.选中标识
+3.当天有日程标识（1-5件日程标识，5件以上日程标识）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据切换标签，改变日期标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当日发布日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当日接收日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当日未处理消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在APP使用期间唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户与安全内验证旧密码成功后更换新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.安排给自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,19 +479,175 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -222,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,6 +676,84 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -772,20 +1284,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -802,4 +1306,565 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.125" customWidth="1"/>
+    <col min="5" max="5" width="66.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
+        <v>7</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>8</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="19">
+        <v>10</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>